--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141912.152988318</v>
+        <v>2177230.908314086</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245266.2125580799</v>
+        <v>206105.0924915826</v>
       </c>
     </row>
     <row r="8">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>53.6160154585808</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="E5" t="n">
-        <v>216.6234524382191</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
@@ -980,16 +980,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>36.43923176655766</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.08368314196558</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.29171516770226</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>148.5527042308418</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>236.634544917884</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>339.4113480164836</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>18.51882078406932</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,7 +1466,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>14.31742697697815</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>99.40314827571861</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.3125801111237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>153.9561866171907</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>266.5196046238108</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.1614271553804</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.5042845838634</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>7.262864575841989</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>81.60429884736297</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>74.15307578127808</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.1776441935613</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>61.30735498950095</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>7.262864575841989</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>44.8437521879864</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>20.07438641789249</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>75.46612597582316</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>298.4087356363135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>98.85625350894399</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H21" t="n">
-        <v>73.64690839405425</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.70187401848231</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.36909819835433</v>
+        <v>133.4747720335892</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3677099213027</v>
+        <v>149.3102327444246</v>
       </c>
       <c r="U24" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
-        <v>34.38075594796302</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>35.97641848124702</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>145.4297492890001</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>114.4867465210428</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>281.246046607896</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>6.098631347229997</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2654,7 +2654,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>17.44731957864619</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>20.51753749903084</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>99.36975442453263</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>33.42744344333065</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0.4026817847173583</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>27.47589768952058</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.02828297723657</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>62.62155343970027</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>26.73110927253622</v>
       </c>
       <c r="D32" t="n">
-        <v>192.5499959179199</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>41.16551806305293</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>78.49794592182121</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>66.40385138751604</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>156.0900476688795</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>245.0628331496188</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>80.85723925249856</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>169.8698175055448</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>181.8351224948159</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>353.6675023748015</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>161.8363381077886</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>193.0311594038714</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>54.48531857689854</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.6148444382401</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>133.0824215829084</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.64958867533</v>
@@ -3839,7 +3839,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3677099213027</v>
+        <v>78.5122943577001</v>
       </c>
       <c r="U42" t="n">
         <v>225.8957288909827</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.298635705472345</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>13.08993799274044</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>216.9963484977668</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>264.7736187671396</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>171.6302532188599</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>57.96458348310414</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4357,22 +4357,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W2" t="n">
-        <v>540.6514970160482</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X2" t="n">
-        <v>540.6514970160482</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="Y2" t="n">
         <v>540.6514970160482</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.7219208240474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>528.7219208240474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>528.7219208240474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>369.484465818592</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>736.4822195890013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>528.7219208240474</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,22 +4506,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>485.167420504237</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
         <v>266.3558523848238</v>
@@ -4597,22 +4597,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.7024528141798</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C6" t="n">
-        <v>317.2494235330527</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y6" t="n">
-        <v>659.9177898342477</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
         <v>53.75394372784808</v>
@@ -4834,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
         <v>20.03527576299844</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>814.0039189138263</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>570.5551422697263</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>362.7036420641935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.7036420641935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.699353998361</v>
+        <v>1313.859960496092</v>
       </c>
       <c r="C11" t="n">
-        <v>1203.859608527166</v>
+        <v>944.8974435556806</v>
       </c>
       <c r="D11" t="n">
-        <v>845.5939099204151</v>
+        <v>926.1915639758126</v>
       </c>
       <c r="E11" t="n">
-        <v>459.8056573221708</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F11" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T11" t="n">
-        <v>2190.61837996229</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U11" t="n">
-        <v>1936.838685974173</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V11" t="n">
-        <v>1936.838685974173</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W11" t="n">
-        <v>1936.838685974173</v>
+        <v>1687.325718757172</v>
       </c>
       <c r="X11" t="n">
-        <v>1936.838685974173</v>
+        <v>1313.859960496092</v>
       </c>
       <c r="Y11" t="n">
-        <v>1546.699353998361</v>
+        <v>1313.859960496092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>829.5376498283632</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>655.0846205472362</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D12" t="n">
-        <v>506.150210885985</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>129.4482613532729</v>
       </c>
       <c r="H12" t="n">
         <v>114.9862139017798</v>
@@ -5123,22 +5123,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>238.3436013083818</v>
       </c>
       <c r="L12" t="n">
-        <v>697.3559079137185</v>
+        <v>617.4707444337751</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309281</v>
+        <v>1111.873459829338</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827627</v>
+        <v>1635.068557347684</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5165,7 +5165,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>997.7529868484312</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.6102374932942</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C13" t="n">
-        <v>196.6102374932942</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D13" t="n">
-        <v>196.6102374932942</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E13" t="n">
-        <v>196.6102374932942</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F13" t="n">
-        <v>196.6102374932942</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>196.6102374932942</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
         <v>48.81975253256327</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>424.5997883913116</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="U13" t="n">
-        <v>424.5997883913116</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="V13" t="n">
-        <v>424.5997883913116</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="W13" t="n">
-        <v>424.5997883913116</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X13" t="n">
-        <v>196.6102374932942</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.6102374932942</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1337.17746876542</v>
+        <v>729.017379164404</v>
       </c>
       <c r="C14" t="n">
-        <v>1337.17746876542</v>
+        <v>729.017379164404</v>
       </c>
       <c r="D14" t="n">
-        <v>1337.17746876542</v>
+        <v>729.017379164404</v>
       </c>
       <c r="E14" t="n">
-        <v>951.3892161671761</v>
+        <v>729.017379164404</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>318.0314743747965</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5284,7 +5284,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2354.562252990429</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>2354.562252990429</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U14" t="n">
-        <v>2100.782559002312</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V14" t="n">
-        <v>2100.782559002312</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W14" t="n">
-        <v>2100.782559002312</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X14" t="n">
-        <v>1727.316800741232</v>
+        <v>729.017379164404</v>
       </c>
       <c r="Y14" t="n">
-        <v>1337.17746876542</v>
+        <v>729.017379164404</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>929.9448703088869</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>755.49184102776</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>606.5574313665087</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>447.3199763610532</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>300.7854183879382</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>162.7555308370998</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>56.15597937684811</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827627</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5390,19 +5390,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1788.426568192975</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1534.189211464774</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1326.337711259241</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1118.577412494287</v>
+        <v>1098.160207328955</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.9897048505185</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>458.9897048505185</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5466,22 +5466,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>851.219582464727</v>
+        <v>959.7198089835795</v>
       </c>
       <c r="C17" t="n">
-        <v>851.219582464727</v>
+        <v>959.7198089835795</v>
       </c>
       <c r="D17" t="n">
-        <v>851.219582464727</v>
+        <v>601.454110376829</v>
       </c>
       <c r="E17" t="n">
-        <v>851.219582464727</v>
+        <v>215.6658577785848</v>
       </c>
       <c r="F17" t="n">
-        <v>440.2336776751194</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G17" t="n">
-        <v>440.2336776751194</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>110.7463737340794</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5521,13 +5521,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5545,22 +5545,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>1967.593327971733</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V17" t="n">
-        <v>1967.593327971733</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W17" t="n">
-        <v>1614.824672701619</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X17" t="n">
-        <v>1241.358914440539</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y17" t="n">
-        <v>851.219582464727</v>
+        <v>1346.319649047701</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>929.9448703088869</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C18" t="n">
-        <v>755.49184102776</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D18" t="n">
-        <v>606.5574313665087</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E18" t="n">
-        <v>447.3199763610532</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F18" t="n">
-        <v>300.7854183879382</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G18" t="n">
-        <v>162.7555308370998</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
-        <v>56.15597937684811</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,49 +5597,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>174.1773125904007</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>553.3044557157939</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1047.707171111357</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1570.902268629703</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1983.107890148932</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.936174430239</v>
+        <v>2371.593068114834</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2395.690907246359</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2235.293176139233</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2035.931852986402</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1807.754349056116</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y18" t="n">
-        <v>1098.160207328955</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C19" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E19" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5697,28 +5697,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="V19" t="n">
-        <v>620.361011682887</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="W19" t="n">
-        <v>620.361011682887</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="X19" t="n">
-        <v>620.361011682887</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.5684325393569</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>898.1272253239783</v>
+        <v>1734.918380371542</v>
       </c>
       <c r="C20" t="n">
-        <v>898.1272253239783</v>
+        <v>1365.955863431131</v>
       </c>
       <c r="D20" t="n">
-        <v>898.1272253239783</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E20" t="n">
-        <v>512.338972725734</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F20" t="n">
         <v>210.9160074365284</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2341.132825103978</v>
       </c>
       <c r="T20" t="n">
-        <v>2259.7089786956</v>
+        <v>2121.518220435664</v>
       </c>
       <c r="U20" t="n">
-        <v>2005.929284707482</v>
+        <v>2121.518220435664</v>
       </c>
       <c r="V20" t="n">
-        <v>1674.866397363912</v>
+        <v>2121.518220435664</v>
       </c>
       <c r="W20" t="n">
-        <v>1674.866397363912</v>
+        <v>2121.518220435664</v>
       </c>
       <c r="X20" t="n">
-        <v>1674.866397363912</v>
+        <v>2121.518220435664</v>
       </c>
       <c r="Y20" t="n">
-        <v>1284.7270653881</v>
+        <v>2121.518220435664</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>890.3999085640012</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C21" t="n">
-        <v>715.9468792828742</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>567.0124696216229</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E21" t="n">
-        <v>407.7750146161674</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F21" t="n">
-        <v>261.2404566430524</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G21" t="n">
-        <v>123.210569092214</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H21" t="n">
         <v>48.81975253256327</v>
@@ -5831,19 +5831,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>248.834206274996</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>627.9613494003893</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.364064795952</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1645.559162314298</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
         <v>2057.764783833527</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>264.7355252003478</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>264.7355252003478</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5943,19 +5943,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W22" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X22" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.6486187827409</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>417.782269472975</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="C23" t="n">
-        <v>48.81975253256327</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D23" t="n">
-        <v>48.81975253256327</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F23" t="n">
         <v>48.81975253256327</v>
@@ -6016,25 +6016,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2394.150153700533</v>
+        <v>2306.164624574033</v>
       </c>
       <c r="T23" t="n">
-        <v>2174.53554903222</v>
+        <v>2306.164624574033</v>
       </c>
       <c r="U23" t="n">
-        <v>1920.755855044102</v>
+        <v>2306.164624574033</v>
       </c>
       <c r="V23" t="n">
-        <v>1920.755855044102</v>
+        <v>1975.101737230463</v>
       </c>
       <c r="W23" t="n">
-        <v>1567.987199773988</v>
+        <v>1622.333081960349</v>
       </c>
       <c r="X23" t="n">
-        <v>1194.521441512908</v>
+        <v>1622.333081960349</v>
       </c>
       <c r="Y23" t="n">
-        <v>804.3821095370968</v>
+        <v>1232.193749984537</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>922.6086434646021</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C24" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D24" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E24" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F24" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
@@ -6080,40 +6080,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079784</v>
+        <v>1567.327806199055</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599013</v>
+        <v>1979.533427718284</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2293.361711999592</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V24" t="n">
-        <v>1760.673136183358</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W24" t="n">
-        <v>1506.435779455157</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X24" t="n">
-        <v>1298.584279249624</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y24" t="n">
-        <v>1090.82398048467</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D25" t="n">
-        <v>343.6227936128668</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="E25" t="n">
-        <v>195.7097000304736</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H25" t="n">
         <v>48.81975253256327</v>
@@ -6177,22 +6177,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y25" t="n">
-        <v>493.7394330252025</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1516.521176810373</v>
+        <v>1297.926153305358</v>
       </c>
       <c r="C26" t="n">
-        <v>1147.558659869961</v>
+        <v>1297.926153305358</v>
       </c>
       <c r="D26" t="n">
-        <v>789.2929612632108</v>
+        <v>1297.926153305358</v>
       </c>
       <c r="E26" t="n">
-        <v>789.2929612632108</v>
+        <v>912.1379007071132</v>
       </c>
       <c r="F26" t="n">
-        <v>378.3070564736033</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
         <v>378.3070564736033</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2187.207932640046</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V26" t="n">
-        <v>2187.207932640046</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W26" t="n">
-        <v>2187.207932640046</v>
+        <v>1688.065485281169</v>
       </c>
       <c r="X26" t="n">
-        <v>2187.207932640046</v>
+        <v>1688.065485281169</v>
       </c>
       <c r="Y26" t="n">
-        <v>1903.121016874495</v>
+        <v>1297.926153305358</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>779.8344674874215</v>
+        <v>940.2321985945478</v>
       </c>
       <c r="C27" t="n">
-        <v>605.3814382062945</v>
+        <v>765.7791693134208</v>
       </c>
       <c r="D27" t="n">
-        <v>599.2212045222238</v>
+        <v>616.8447596521695</v>
       </c>
       <c r="E27" t="n">
-        <v>439.9837495167684</v>
+        <v>457.607304646714</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>311.072746673599</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>173.0428591227606</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>66.44330766250891</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6308,19 +6308,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>174.1773125904007</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>553.3044557157939</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
         <v>2283.899498973758</v>
@@ -6332,25 +6332,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2280.589895521037</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T27" t="n">
-        <v>2081.228572368206</v>
+        <v>2241.626303475332</v>
       </c>
       <c r="U27" t="n">
-        <v>1853.051068437921</v>
+        <v>2013.448799545047</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.898960206178</v>
+        <v>1778.296691313304</v>
       </c>
       <c r="W27" t="n">
-        <v>1363.661603477976</v>
+        <v>1524.059334585103</v>
       </c>
       <c r="X27" t="n">
-        <v>1155.810103272443</v>
+        <v>1316.20783437957</v>
       </c>
       <c r="Y27" t="n">
-        <v>948.0498045074896</v>
+        <v>1108.447535614616</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>375.0756378301253</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>354.3508524775689</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V28" t="n">
-        <v>354.3508524775689</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>354.3508524775689</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>876.4214573974352</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C29" t="n">
-        <v>507.4589404570235</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D29" t="n">
-        <v>149.193241850273</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E29" t="n">
-        <v>149.193241850273</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F29" t="n">
-        <v>149.193241850273</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256327</v>
@@ -6469,7 +6469,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U29" t="n">
-        <v>2005.929284707483</v>
+        <v>2338.131933507651</v>
       </c>
       <c r="V29" t="n">
-        <v>2005.929284707483</v>
+        <v>2338.131933507651</v>
       </c>
       <c r="W29" t="n">
-        <v>1653.160629437369</v>
+        <v>1985.363278237537</v>
       </c>
       <c r="X29" t="n">
-        <v>1653.160629437369</v>
+        <v>1611.897519976457</v>
       </c>
       <c r="Y29" t="n">
-        <v>1263.021297461557</v>
+        <v>1221.758188000646</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>922.6086434646021</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
@@ -6548,19 +6548,19 @@
         <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6569,25 +6569,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U30" t="n">
-        <v>1995.825244415101</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V30" t="n">
-        <v>1760.673136183358</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W30" t="n">
-        <v>1506.435779455157</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X30" t="n">
-        <v>1298.584279249624</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y30" t="n">
-        <v>1090.82398048467</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>259.986940498492</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>259.986940498492</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E31" t="n">
         <v>48.81975253256327</v>
@@ -6645,28 +6645,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U31" t="n">
-        <v>351.4590821581505</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V31" t="n">
-        <v>351.4590821581505</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W31" t="n">
-        <v>351.4590821581505</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X31" t="n">
-        <v>351.4590821581505</v>
+        <v>259.986940498492</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.6665030146204</v>
+        <v>259.986940498492</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>990.9896677746658</v>
+        <v>1290.782696327151</v>
       </c>
       <c r="C32" t="n">
-        <v>990.9896677746658</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D32" t="n">
-        <v>796.4947224030295</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E32" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
         <v>1672.394424063531</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>1717.22408130586</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.22408130586</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.455426035746</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X32" t="n">
-        <v>990.9896677746658</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y32" t="n">
-        <v>990.9896677746658</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>930.0360717494664</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>755.5830424683394</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>606.6486328070881</v>
+        <v>506.150210885985</v>
       </c>
       <c r="E33" t="n">
-        <v>447.4111778016326</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F33" t="n">
-        <v>300.8766198285176</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G33" t="n">
         <v>221.5857653620315</v>
@@ -6776,34 +6776,34 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>318.2287647883257</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L33" t="n">
-        <v>697.355907913719</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M33" t="n">
-        <v>1191.758623309282</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N33" t="n">
-        <v>1714.953720827628</v>
+        <v>1570.902268629703</v>
       </c>
       <c r="O33" t="n">
-        <v>2127.159342346857</v>
+        <v>1983.107890148932</v>
       </c>
       <c r="P33" t="n">
-        <v>2440.987626628164</v>
+        <v>2296.936174430239</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
         <v>2222.939999577549</v>
@@ -6812,19 +6812,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
         <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1306.011707534488</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.251408769534</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>482.9714548637082</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C34" t="n">
-        <v>482.9714548637082</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D34" t="n">
-        <v>482.9714548637082</v>
+        <v>262.7842973916009</v>
       </c>
       <c r="E34" t="n">
-        <v>335.0583612813151</v>
+        <v>262.7842973916009</v>
       </c>
       <c r="F34" t="n">
-        <v>188.1684137834047</v>
+        <v>115.8943498936906</v>
       </c>
       <c r="G34" t="n">
-        <v>188.1684137834047</v>
+        <v>115.8943498936906</v>
       </c>
       <c r="H34" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6888,22 +6888,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X34" t="n">
-        <v>482.9714548637082</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.9714548637082</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1409.374435980615</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C35" t="n">
-        <v>1040.411919040203</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D35" t="n">
-        <v>682.1462204334528</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E35" t="n">
-        <v>296.3579678352085</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F35" t="n">
-        <v>296.3579678352085</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S35" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T35" t="n">
         <v>2152.282423226541</v>
       </c>
       <c r="U35" t="n">
-        <v>2152.282423226541</v>
+        <v>1898.502729238424</v>
       </c>
       <c r="V35" t="n">
-        <v>2152.282423226541</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="W35" t="n">
-        <v>1799.513767956427</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="X35" t="n">
-        <v>1799.513767956427</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="Y35" t="n">
-        <v>1409.374435980615</v>
+        <v>1426.689418219684</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>816.0090920043505</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C36" t="n">
-        <v>641.5560627232235</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D36" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E36" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F36" t="n">
-        <v>186.8496400834017</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K36" t="n">
-        <v>310.3046743909634</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L36" t="n">
-        <v>540.2677802593125</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.670495654875</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1570.902268629703</v>
       </c>
       <c r="O36" t="n">
         <v>1970.07121469245</v>
@@ -7043,10 +7043,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2280.589895521037</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T36" t="n">
-        <v>2081.228572368206</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U36" t="n">
         <v>1853.051068437921</v>
@@ -7055,13 +7055,13 @@
         <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1363.661603477976</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X36" t="n">
-        <v>1155.810103272443</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y36" t="n">
-        <v>984.2244290244184</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7128,19 +7128,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W37" t="n">
-        <v>351.2209996437976</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X37" t="n">
-        <v>123.2314487457803</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1344.379229905239</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.379229905239</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D38" t="n">
-        <v>1344.379229905239</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E38" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F38" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G38" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256324</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7192,7 +7192,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
@@ -7204,22 +7204,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2440.987626628164</v>
+        <v>2257.31578572431</v>
       </c>
       <c r="U38" t="n">
-        <v>2440.987626628164</v>
+        <v>2257.31578572431</v>
       </c>
       <c r="V38" t="n">
-        <v>2440.987626628164</v>
+        <v>1926.252898380739</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.218971358049</v>
+        <v>1926.252898380739</v>
       </c>
       <c r="X38" t="n">
-        <v>1730.979069969361</v>
+        <v>1552.787140119659</v>
       </c>
       <c r="Y38" t="n">
-        <v>1730.979069969361</v>
+        <v>1162.647808143847</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C39" t="n">
-        <v>610.1257266326368</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D39" t="n">
-        <v>461.1913169713854</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E39" t="n">
-        <v>301.9538619659299</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F39" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339193</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L39" t="n">
         <v>540.2677802593125</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W39" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>364.8099152070275</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="C40" t="n">
-        <v>364.8099152070275</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="D40" t="n">
-        <v>364.8099152070275</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="E40" t="n">
-        <v>364.8099152070275</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="F40" t="n">
-        <v>217.9199677091171</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K40" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>445.6572005859387</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="V40" t="n">
-        <v>585.6024943505577</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="W40" t="n">
-        <v>585.6024943505577</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="X40" t="n">
-        <v>585.6024943505577</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="Y40" t="n">
-        <v>364.8099152070275</v>
+        <v>217.9199677091172</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1706.139985705832</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C41" t="n">
-        <v>1337.17746876542</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.17746876542</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>951.3892161671761</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,13 +7423,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2040.094374027287</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U41" t="n">
-        <v>2040.094374027287</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V41" t="n">
-        <v>2040.094374027287</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W41" t="n">
-        <v>2040.094374027287</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.094374027287</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y41" t="n">
-        <v>2040.094374027287</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>882.5823026510593</v>
+        <v>842.2405468607036</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>667.7875175795766</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>518.8531079183253</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
         <v>2283.899498973758</v>
@@ -7517,25 +7517,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2183.976407531844</v>
+        <v>2143.634651741488</v>
       </c>
       <c r="U42" t="n">
-        <v>1955.798903601558</v>
+        <v>1915.457147811203</v>
       </c>
       <c r="V42" t="n">
-        <v>1720.646795369816</v>
+        <v>1680.30503957946</v>
       </c>
       <c r="W42" t="n">
-        <v>1466.409438641614</v>
+        <v>1426.067682851258</v>
       </c>
       <c r="X42" t="n">
-        <v>1258.557938436081</v>
+        <v>1218.216182645725</v>
       </c>
       <c r="Y42" t="n">
-        <v>1050.797639671127</v>
+        <v>1010.455883880772</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>216.8534662983175</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>58.21231385122221</v>
       </c>
       <c r="I43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>627.4160100921315</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.556426860827</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="C44" t="n">
-        <v>845.5939099204151</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="D44" t="n">
-        <v>845.5939099204151</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="E44" t="n">
-        <v>459.8056573221708</v>
+        <v>1097.181554057422</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>686.1956492678146</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>268.0079833383883</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7675,25 +7675,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2221.37302195985</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U44" t="n">
-        <v>2221.37302195985</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V44" t="n">
-        <v>2221.37302195985</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W44" t="n">
-        <v>1868.604366689736</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X44" t="n">
-        <v>1868.604366689736</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1601.156266924949</v>
+        <v>1869.569646719788</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>814.3220755526918</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7733,16 +7733,16 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N45" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
         <v>2283.899498973758</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1190.297711337714</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>982.5374125727599</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V46" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W46" t="n">
-        <v>351.2209996437976</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X46" t="n">
-        <v>123.2314487457803</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>339.4781965639073</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>260.9356492070019</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>260.9356492070019</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>173.4340583949356</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>251.2968779656277</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>186.4824449171618</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>331.4740648494004</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>260.9356492070019</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>25.86154375452395</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>336.1642208366137</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>91.21612896867103</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>106.2795475015858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>10.74216081150064</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
@@ -23466,10 +23466,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>71.50367393086259</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>147.4861846463211</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>162.3044342978577</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.02889906600399</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>58.24193217968242</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>67.01117417084939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
@@ -23706,16 +23706,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.6984015481501</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>99.16793736542455</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>58.24193217968242</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>12.22964479606713</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23937,10 +23937,10 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23949,16 +23949,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>232.0632569059355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>150.243529413214</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>108.4673101053979</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24019,16 +24019,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>80.60960794429415</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H21" t="n">
-        <v>31.88664755159492</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.707339006306</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24183,16 +24183,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
@@ -24256,22 +24256,22 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>133.0967632548838</v>
+        <v>45.99108941964897</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>48.05747717687808</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>198.4198312014622</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>110.4575441653222</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24417,10 +24417,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>140.8575473583815</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>292.3892992206686</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24499,19 +24499,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>104.9918920481576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>48.05747717687822</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24654,16 +24654,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>265.7697591483508</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>314.6360348455993</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>217.8144536049056</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>198.4198312014621</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.80369720470073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>85.99391957851208</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>213.8779974765521</v>
@@ -24894,7 +24894,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>338.5417824984713</v>
       </c>
       <c r="D32" t="n">
-        <v>162.133045702763</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>106.2795475015858</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>58.15164275350878</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>90.65088953510825</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25128,7 +25128,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>69.61960772015763</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>168.9429561205132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>246.8950192176363</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>35.81287827175917</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>13.21732471838823</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25368,19 +25368,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.91707410101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>35.58333612681457</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>16.06359830366756</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.696845542078734</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>21.74148333600714</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>20.84683807268078</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>197.6523247469295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.11899722524049</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>190.6873493490949</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>39.62607740540739</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>118.8554155636026</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>128.6565389328607</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25836,19 +25836,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7880594838117</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>109.1960824038628</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25915,10 +25915,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>121.464319888914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>34.14273198461754</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>88.46937916346502</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26076,7 +26076,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.91707410101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>569399.0262607427</v>
+        <v>569399.0262607428</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>569399.0262607428</v>
+        <v>569399.0262607427</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>569399.0262607427</v>
+        <v>569399.0262607428</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>569399.0262607427</v>
+        <v>569399.0262607428</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>379599.3508404949</v>
+      </c>
+      <c r="F2" t="n">
         <v>379599.350840495</v>
       </c>
-      <c r="F2" t="n">
-        <v>379599.3508404949</v>
-      </c>
       <c r="G2" t="n">
-        <v>379599.3508404951</v>
+        <v>379599.350840495</v>
       </c>
       <c r="H2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.3508404948</v>
       </c>
       <c r="I2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="J2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="K2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="L2" t="n">
-        <v>379599.3508404951</v>
+        <v>379599.350840495</v>
       </c>
       <c r="M2" t="n">
-        <v>379599.3508404951</v>
+        <v>379599.350840495</v>
       </c>
       <c r="N2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="O2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404948</v>
       </c>
       <c r="P2" t="n">
         <v>379599.350840495</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109308</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>463.7092767442726</v>
@@ -26459,7 +26459,7 @@
         <v>463.7092767442726</v>
       </c>
       <c r="P4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
     </row>
     <row r="5">
@@ -26499,13 +26499,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="M5" t="n">
         <v>44136.03802033843</v>
       </c>
-      <c r="M5" t="n">
-        <v>44136.03802033842</v>
-      </c>
       <c r="N5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166553.4784775256</v>
+        <v>166553.4784775254</v>
       </c>
       <c r="C6" t="n">
-        <v>247322.9100090732</v>
+        <v>247322.9100090731</v>
       </c>
       <c r="D6" t="n">
         <v>247322.9100090734</v>
       </c>
       <c r="E6" t="n">
-        <v>-41404.6201631001</v>
+        <v>-35132.58804674118</v>
       </c>
       <c r="F6" t="n">
-        <v>328030.6789696799</v>
+        <v>334302.7110860391</v>
       </c>
       <c r="G6" t="n">
-        <v>328030.6789696802</v>
+        <v>334302.7110860391</v>
       </c>
       <c r="H6" t="n">
-        <v>328030.6789696799</v>
+        <v>334302.7110860389</v>
       </c>
       <c r="I6" t="n">
-        <v>328030.6789696801</v>
+        <v>334302.7110860391</v>
       </c>
       <c r="J6" t="n">
-        <v>264970.7363705738</v>
+        <v>271242.7684869327</v>
       </c>
       <c r="K6" t="n">
-        <v>328030.67896968</v>
+        <v>334302.7110860391</v>
       </c>
       <c r="L6" t="n">
-        <v>328030.6789696802</v>
+        <v>334302.7110860391</v>
       </c>
       <c r="M6" t="n">
-        <v>236016.4336885871</v>
+        <v>242288.465804946</v>
       </c>
       <c r="N6" t="n">
-        <v>328030.67896968</v>
+        <v>334302.711086039</v>
       </c>
       <c r="O6" t="n">
-        <v>328030.67896968</v>
+        <v>334302.7110860389</v>
       </c>
       <c r="P6" t="n">
-        <v>328030.67896968</v>
+        <v>334302.7110860391</v>
       </c>
     </row>
   </sheetData>
@@ -26819,13 +26819,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="M4" t="n">
         <v>610.246906657041</v>
       </c>
-      <c r="M4" t="n">
-        <v>610.2469066570409</v>
-      </c>
       <c r="N4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>54.92923574669314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>149.0801356085611</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>152.1569697448967</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>207.8341597252609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>155.9780284959916</v>
       </c>
       <c r="E5" t="n">
-        <v>165.3069176340427</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
@@ -27700,16 +27700,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>63.71860238608547</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.5990126353388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>34.50357226344606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>205.9115976555972</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>332.4421264957783</v>
+        <v>314.5236871822507</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>84.24788291858343</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>15.06043824303563</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>196.5506615794105</v>
       </c>
     </row>
     <row r="11">
@@ -31843,7 +31843,7 @@
         <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
@@ -31855,13 +31855,13 @@
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336026</v>
+        <v>87.12044773818587</v>
       </c>
       <c r="P12" t="n">
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
@@ -32095,7 +32095,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>88.57936276876457</v>
@@ -32317,7 +32317,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
@@ -32332,10 +32332,10 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252086</v>
+        <v>95.86667638429515</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.41100372181322</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>43.0844371685896</v>
@@ -32551,10 +32551,10 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>10.59657067334766</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
@@ -32566,7 +32566,7 @@
         <v>180.479234222958</v>
       </c>
       <c r="O21" t="n">
-        <v>165.1032398336026</v>
+        <v>128.4600104926892</v>
       </c>
       <c r="P21" t="n">
         <v>132.5099057252086</v>
@@ -32800,16 +32800,16 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
-        <v>180.479234222958</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>165.1032398336026</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>79.02157183357846</v>
       </c>
       <c r="R24" t="n">
         <v>43.0844371685896</v>
@@ -33028,13 +33028,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>162.6572933428076</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33043,7 +33043,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P27" t="n">
-        <v>132.5099057252086</v>
+        <v>7.287313615530792</v>
       </c>
       <c r="Q27" t="n">
         <v>88.57936276876457</v>
@@ -33268,7 +33268,7 @@
         <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
-        <v>25.44815259440708</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
         <v>175.8256523897584</v>
@@ -33283,7 +33283,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>43.0844371685896</v>
@@ -33502,7 +33502,7 @@
         <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>80.69208432317561</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
@@ -33520,7 +33520,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>75.41100372181322</v>
       </c>
       <c r="R33" t="n">
         <v>43.0844371685896</v>
@@ -33736,13 +33736,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>72.68795260866824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
         <v>175.8256523897584</v>
@@ -33751,7 +33751,7 @@
         <v>180.479234222958</v>
       </c>
       <c r="O36" t="n">
-        <v>165.1032398336026</v>
+        <v>151.9348807866515</v>
       </c>
       <c r="P36" t="n">
         <v>132.5099057252086</v>
@@ -33979,7 +33979,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>150.670744704085</v>
+        <v>137.5023856571341</v>
       </c>
       <c r="M39" t="n">
         <v>175.8256523897584</v>
@@ -34210,10 +34210,10 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
@@ -34228,7 +34228,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P42" t="n">
-        <v>132.5099057252086</v>
+        <v>7.287313615530792</v>
       </c>
       <c r="Q42" t="n">
         <v>88.57936276876457</v>
@@ -34380,7 +34380,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N44" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265077</v>
       </c>
       <c r="O44" t="n">
         <v>218.5211886152591</v>
@@ -34453,7 +34453,7 @@
         <v>112.054233062727</v>
       </c>
       <c r="L45" t="n">
-        <v>150.670744704085</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>175.8256523897584</v>
@@ -34465,7 +34465,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q45" t="n">
         <v>88.57936276876457</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35491,10 +35491,10 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>351.5945614881181</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
         <v>499.39668221774</v>
@@ -35503,13 +35503,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>416.3693146658877</v>
+        <v>338.386522570471</v>
       </c>
       <c r="P12" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35743,10 +35743,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>280.3550376099021</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.5065173716408</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.2203687115673</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36214,7 +36214,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>416.3693146658877</v>
+        <v>379.7260853249742</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
@@ -36448,16 +36448,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>149.117085483406</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>486.2283231707892</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36691,7 +36691,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q27" t="n">
         <v>158.6748764185921</v>
@@ -36916,7 +36916,7 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
-        <v>257.7341181179921</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
         <v>499.39668221774</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>207.3158823613952</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>145.5065173716408</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>199.3117506468878</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
         <v>499.39668221774</v>
@@ -37399,7 +37399,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>416.3693146658877</v>
+        <v>403.2009556189366</v>
       </c>
       <c r="P36" t="n">
         <v>316.9982669508155</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912687</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>382.95671022767</v>
+        <v>369.7883511807191</v>
       </c>
       <c r="M39" t="n">
         <v>499.39668221774</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37876,7 +37876,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q42" t="n">
         <v>158.6748764185921</v>
@@ -38028,7 +38028,7 @@
         <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419009</v>
       </c>
       <c r="O44" t="n">
         <v>369.2231584563177</v>
@@ -38101,7 +38101,7 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>
@@ -38113,7 +38113,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
         <v>158.6748764185921</v>
